--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T09:40:17+00:00</t>
+    <t>2021-12-01T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T11:34:04+00:00</t>
+    <t>2021-12-06T15:13:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T15:13:20+00:00</t>
+    <t>2021-12-08T18:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,6 +78,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Daten zur Identifikation des Erstellers bzw. der Erstellerin des Medikationsplans.</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: UKF Mapping</t>
   </si>
   <si>
     <t/>
@@ -1555,66 +1561,68 @@
       <c r="A11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1672,6129 +1680,6295 @@
     <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="50.94921875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.22265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM55">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T18:19:37+00:00</t>
+    <t>2021-12-09T19:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:37:11+00:00</t>
+    <t>2022-01-05T14:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:53:01+00:00</t>
+    <t>2022-05-24T10:16:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:16:42+00:00</t>
+    <t>2022-09-05T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="689">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:28:19+00:00</t>
+    <t>2022-11-28T18:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,10 +258,6 @@
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -278,47 +274,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Practitioner.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Practitioner.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -369,10 +369,6 @@
   </si>
   <si>
     <t>Practitioner.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2506,44 +2502,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.16015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.4921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.49609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="83.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.94921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="25.22265625" customWidth="true" bestFit="true"/>
   </cols>
@@ -2764,16 +2760,16 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>75</v>
@@ -2784,7 +2780,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2795,28 +2791,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2866,13 +2862,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -2898,7 +2894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2909,25 +2905,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2978,19 +2974,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -3010,7 +3006,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -3021,7 +3017,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -3033,7 +3029,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -3096,7 +3092,7 @@
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -3247,28 +3243,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3318,19 +3314,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -3350,7 +3346,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3361,28 +3357,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3432,19 +3428,19 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -3464,7 +3460,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3475,28 +3471,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3546,19 +3542,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -3578,7 +3574,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3592,25 +3588,25 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3660,7 +3656,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3672,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -3692,7 +3688,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3712,19 +3708,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3750,31 +3746,31 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3786,7 +3782,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -3806,7 +3802,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3826,19 +3822,19 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3864,31 +3860,31 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3900,7 +3896,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -3920,7 +3916,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3931,28 +3927,28 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -4002,19 +3998,19 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -4034,7 +4030,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -4045,7 +4041,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -4057,16 +4053,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -4092,43 +4088,43 @@
         <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -4148,18 +4144,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>75</v>
@@ -4171,16 +4167,16 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4230,25 +4226,25 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -4262,11 +4258,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4285,16 +4281,16 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4344,7 +4340,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -4362,7 +4358,7 @@
         <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -4376,7 +4372,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4405,7 +4401,7 @@
         <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>108</v>
@@ -4458,7 +4454,7 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -4476,7 +4472,7 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -4490,7 +4486,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4507,7 +4503,7 @@
         <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>75</v>
@@ -4516,16 +4512,16 @@
         <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -4574,7 +4570,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4592,7 +4588,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -4606,7 +4602,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4614,32 +4610,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>75</v>
@@ -4676,7 +4672,7 @@
         <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
@@ -4686,7 +4682,7 @@
         <v>111</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4698,19 +4694,19 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>75</v>
@@ -4718,20 +4714,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>75</v>
@@ -4743,17 +4739,17 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -4763,7 +4759,7 @@
         <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>75</v>
@@ -4802,7 +4798,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4811,19 +4807,19 @@
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AI20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4834,7 +4830,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4845,7 +4841,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>75</v>
@@ -4857,7 +4853,7 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>99</v>
@@ -4920,7 +4916,7 @@
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
@@ -4946,7 +4942,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5037,7 +5033,7 @@
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>113</v>
@@ -5046,7 +5042,7 @@
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -5060,7 +5056,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5071,98 +5067,98 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
+      <c r="X23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -5176,7 +5172,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5187,31 +5183,31 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>75</v>
@@ -5221,64 +5217,64 @@
         <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -5292,7 +5288,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5300,104 +5296,104 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="R25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S25" t="s" s="2">
+      <c r="T25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -5408,7 +5404,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5416,31 +5412,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5454,75 +5450,75 @@
         <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI26" t="s" s="2">
+      <c r="AJ26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5533,28 +5529,28 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5604,28 +5600,28 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI27" t="s" s="2">
+      <c r="AJ27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
@@ -5636,7 +5632,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5647,28 +5643,28 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5718,28 +5714,28 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI28" t="s" s="2">
+      <c r="AJ28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5750,7 +5746,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5761,7 +5757,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>75</v>
@@ -5773,7 +5769,7 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>99</v>
@@ -5836,7 +5832,7 @@
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
@@ -5862,7 +5858,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5953,7 +5949,7 @@
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>113</v>
@@ -5962,7 +5958,7 @@
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -5976,7 +5972,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5987,28 +5983,28 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6058,25 +6054,25 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -6090,7 +6086,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6101,28 +6097,28 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6148,49 +6144,49 @@
         <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -6204,7 +6200,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6215,28 +6211,28 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6286,28 +6282,28 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AL33" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
@@ -6318,7 +6314,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6329,7 +6325,7 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>75</v>
@@ -6341,7 +6337,7 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>99</v>
@@ -6404,7 +6400,7 @@
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
@@ -6430,7 +6426,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6521,7 +6517,7 @@
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>113</v>
@@ -6530,7 +6526,7 @@
         <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -6544,7 +6540,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6555,31 +6551,31 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>75</v>
@@ -6604,49 +6600,49 @@
         <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X36" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="X36" t="s" s="2">
+      <c r="Y36" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -6660,7 +6656,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6671,31 +6667,31 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>75</v>
@@ -6720,49 +6716,49 @@
         <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -6776,7 +6772,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6784,104 +6780,104 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="T38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -6892,7 +6888,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6900,31 +6896,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6938,64 +6934,64 @@
         <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="T39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -7006,7 +7002,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7017,28 +7013,28 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7088,28 +7084,28 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI40" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI40" t="s" s="2">
+      <c r="AJ40" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -7120,7 +7116,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7131,28 +7127,28 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7202,28 +7198,28 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI41" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI41" t="s" s="2">
+      <c r="AJ41" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AK41" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -7234,7 +7230,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7242,31 +7238,31 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7316,25 +7312,25 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -7348,7 +7344,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7359,106 +7355,106 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P43" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="O43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P43" t="s" s="2">
+      <c r="Q43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Q43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>75</v>
@@ -7466,7 +7462,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7480,7 +7476,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -7489,19 +7485,19 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>75</v>
@@ -7550,7 +7546,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -7559,19 +7555,19 @@
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -7582,7 +7578,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7593,7 +7589,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
@@ -7605,7 +7601,7 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>99</v>
@@ -7668,7 +7664,7 @@
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
@@ -7694,7 +7690,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7785,7 +7781,7 @@
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>113</v>
@@ -7794,7 +7790,7 @@
         <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -7808,7 +7804,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7819,31 +7815,31 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -7868,52 +7864,52 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE47" t="s" s="2">
+      <c r="AF47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>75</v>
@@ -7924,7 +7920,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7932,34 +7928,34 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="H48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>75</v>
@@ -8008,25 +8004,25 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -8040,39 +8036,39 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8122,28 +8118,28 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -8154,7 +8150,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8165,7 +8161,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>75</v>
@@ -8177,7 +8173,7 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>99</v>
@@ -8240,7 +8236,7 @@
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
@@ -8266,7 +8262,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8357,7 +8353,7 @@
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>113</v>
@@ -8366,7 +8362,7 @@
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -8380,10 +8376,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>104</v>
@@ -8393,7 +8389,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>75</v>
@@ -8405,16 +8401,16 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8473,7 +8469,7 @@
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>113</v>
@@ -8482,7 +8478,7 @@
         <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -8496,10 +8492,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>104</v>
@@ -8509,7 +8505,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -8521,16 +8517,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8589,16 +8585,16 @@
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -8612,10 +8608,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>104</v>
@@ -8625,7 +8621,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -8637,16 +8633,16 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8705,16 +8701,16 @@
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -8728,7 +8724,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8739,7 +8735,7 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>75</v>
@@ -8751,13 +8747,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8781,40 +8777,40 @@
         <v>75</v>
       </c>
       <c r="V55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="W55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
@@ -8840,11 +8836,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8860,19 +8856,19 @@
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8922,7 +8918,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8931,19 +8927,19 @@
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8954,7 +8950,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8974,19 +8970,19 @@
         <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9036,7 +9032,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -9045,19 +9041,19 @@
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -9068,7 +9064,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9079,7 +9075,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
@@ -9091,7 +9087,7 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>99</v>
@@ -9154,7 +9150,7 @@
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
@@ -9180,7 +9176,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9271,7 +9267,7 @@
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>113</v>
@@ -9280,7 +9276,7 @@
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -9294,10 +9290,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>104</v>
@@ -9319,16 +9315,16 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9387,7 +9383,7 @@
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>113</v>
@@ -9396,7 +9392,7 @@
         <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -9410,7 +9406,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9421,7 +9417,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>75</v>
@@ -9433,13 +9429,13 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9463,40 +9459,40 @@
         <v>75</v>
       </c>
       <c r="V61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="W61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
@@ -9522,7 +9518,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9542,19 +9538,19 @@
         <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9604,7 +9600,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -9613,16 +9609,16 @@
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -9636,7 +9632,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9647,31 +9643,31 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>75</v>
@@ -9720,28 +9716,28 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AF63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
+      <c r="AK63" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="AL63" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -9752,7 +9748,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9772,22 +9768,22 @@
         <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>75</v>
@@ -9836,7 +9832,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9848,16 +9844,16 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -9868,7 +9864,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9879,7 +9875,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>75</v>
@@ -9891,7 +9887,7 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>99</v>
@@ -9954,7 +9950,7 @@
         <v>76</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>75</v>
@@ -9980,7 +9976,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10094,7 +10090,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10105,25 +10101,25 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10150,52 +10146,52 @@
         <v>75</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE67" t="s" s="2">
+      <c r="AF67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH67" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH67" t="s" s="2">
+      <c r="AI67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AI67" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="AK67" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -10206,7 +10202,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10217,31 +10213,31 @@
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>75</v>
@@ -10290,39 +10286,39 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
+      <c r="AK68" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AL68" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>454</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10333,31 +10329,31 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I69" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>75</v>
@@ -10382,52 +10378,52 @@
         <v>75</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AF69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
+      <c r="AK69" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -10438,7 +10434,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10449,28 +10445,28 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10520,19 +10516,19 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>102</v>
@@ -10552,7 +10548,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10563,25 +10559,25 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10632,28 +10628,28 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -10664,7 +10660,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10678,7 +10674,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -10687,19 +10683,19 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>75</v>
@@ -10712,7 +10708,7 @@
         <v>75</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>75</v>
@@ -10748,7 +10744,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10757,19 +10753,19 @@
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AJ72" t="s" s="2">
+      <c r="AK72" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -10780,7 +10776,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10791,7 +10787,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>75</v>
@@ -10803,7 +10799,7 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>99</v>
@@ -10866,7 +10862,7 @@
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>75</v>
@@ -10892,7 +10888,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10983,7 +10979,7 @@
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>113</v>
@@ -10992,7 +10988,7 @@
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -11006,10 +11002,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>104</v>
@@ -11019,7 +11015,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>75</v>
@@ -11031,13 +11027,13 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>108</v>
@@ -11099,7 +11095,7 @@
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>113</v>
@@ -11108,7 +11104,7 @@
         <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>75</v>
@@ -11122,7 +11118,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11133,31 +11129,31 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I76" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>75</v>
@@ -11170,64 +11166,64 @@
         <v>75</v>
       </c>
       <c r="S76" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X76" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="T76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="X76" t="s" s="2">
+      <c r="Y76" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
+      <c r="AF76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AF76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
+      <c r="AK76" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>75</v>
@@ -11238,7 +11234,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11249,28 +11245,28 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11284,61 +11280,61 @@
         <v>75</v>
       </c>
       <c r="S77" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X77" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="T77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="X77" t="s" s="2">
+      <c r="Y77" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="Y77" t="s" s="2">
+      <c r="Z77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE77" t="s" s="2">
+      <c r="AF77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AF77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AK77" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>75</v>
@@ -11352,7 +11348,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11363,31 +11359,31 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="N78" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>75</v>
@@ -11400,61 +11396,61 @@
         <v>75</v>
       </c>
       <c r="S78" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="T78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE78" t="s" s="2">
+      <c r="AF78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AF78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="AK78" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>75</v>
@@ -11468,7 +11464,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11479,28 +11475,28 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="M79" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11514,43 +11510,43 @@
         <v>75</v>
       </c>
       <c r="S79" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -11559,30 +11555,30 @@
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11593,7 +11589,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>75</v>
@@ -11605,7 +11601,7 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>99</v>
@@ -11668,7 +11664,7 @@
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
@@ -11694,7 +11690,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11785,7 +11781,7 @@
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>113</v>
@@ -11794,7 +11790,7 @@
         <v>75</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>75</v>
@@ -11808,10 +11804,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>104</v>
@@ -11821,7 +11817,7 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>75</v>
@@ -11833,13 +11829,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>108</v>
@@ -11901,7 +11897,7 @@
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>113</v>
@@ -11910,7 +11906,7 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -11924,10 +11920,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>104</v>
@@ -11937,7 +11933,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>75</v>
@@ -11949,13 +11945,13 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>108</v>
@@ -12017,7 +12013,7 @@
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>113</v>
@@ -12026,7 +12022,7 @@
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -12040,10 +12036,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>104</v>
@@ -12053,7 +12049,7 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>75</v>
@@ -12065,13 +12061,13 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>108</v>
@@ -12133,7 +12129,7 @@
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>113</v>
@@ -12142,7 +12138,7 @@
         <v>75</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
@@ -12156,10 +12152,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>104</v>
@@ -12169,7 +12165,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>75</v>
@@ -12181,13 +12177,13 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>108</v>
@@ -12249,7 +12245,7 @@
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>113</v>
@@ -12258,7 +12254,7 @@
         <v>75</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>75</v>
@@ -12272,7 +12268,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12283,7 +12279,7 @@
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>75</v>
@@ -12295,13 +12291,13 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12325,40 +12321,40 @@
         <v>75</v>
       </c>
       <c r="V86" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE86" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="W86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
@@ -12384,39 +12380,39 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12430,79 +12426,79 @@
         <v>75</v>
       </c>
       <c r="S87" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE87" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="T87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE87" t="s" s="2">
+      <c r="AF87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AF87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
+      <c r="AK87" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>559</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12518,19 +12514,19 @@
         <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12544,61 +12540,61 @@
         <v>75</v>
       </c>
       <c r="S88" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="T88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE88" t="s" s="2">
+      <c r="AF88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AF88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AK88" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>75</v>
@@ -12612,39 +12608,39 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="M89" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12670,50 +12666,50 @@
         <v>75</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE89" t="s" s="2">
+      <c r="AF89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AF89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
+      <c r="AK89" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AK89" t="s" s="2">
+      <c r="AL89" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>75</v>
@@ -12724,39 +12720,39 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="M90" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12770,75 +12766,75 @@
         <v>75</v>
       </c>
       <c r="S90" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE90" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="T90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE90" t="s" s="2">
+      <c r="AF90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AF90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
+      <c r="AK90" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AK90" t="s" s="2">
+      <c r="AL90" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>587</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12849,28 +12845,28 @@
         <v>76</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12896,50 +12892,50 @@
         <v>75</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE91" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE91" t="s" s="2">
+      <c r="AF91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AF91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="AK91" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>75</v>
@@ -12950,7 +12946,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12961,31 +12957,31 @@
         <v>76</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>75</v>
@@ -12998,64 +12994,64 @@
         <v>75</v>
       </c>
       <c r="S92" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE92" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="T92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE92" t="s" s="2">
+      <c r="AF92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="AK92" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>75</v>
@@ -13066,7 +13062,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13077,7 +13073,7 @@
         <v>76</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>75</v>
@@ -13089,7 +13085,7 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>99</v>
@@ -13152,7 +13148,7 @@
         <v>76</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -13178,7 +13174,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13269,7 +13265,7 @@
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>113</v>
@@ -13278,7 +13274,7 @@
         <v>75</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>75</v>
@@ -13292,7 +13288,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13303,28 +13299,28 @@
         <v>76</v>
       </c>
       <c r="F95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I95" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J95" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13374,25 +13370,25 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH95" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="AF95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH95" t="s" s="2">
+      <c r="AI95" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="AI95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
+      <c r="AK95" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -13406,7 +13402,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13417,98 +13413,98 @@
         <v>76</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J96" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P96" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="Q96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE96" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="Q96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE96" t="s" s="2">
+      <c r="AF96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="AF96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
+      <c r="AK96" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -13522,7 +13518,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13533,29 +13529,29 @@
         <v>76</v>
       </c>
       <c r="F97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I97" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J97" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -13580,52 +13576,52 @@
         <v>75</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="Y97" t="s" s="2">
+      <c r="Z97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
+      <c r="AK97" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="AK97" t="s" s="2">
+      <c r="AL97" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>75</v>
@@ -13636,7 +13632,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13647,29 +13643,29 @@
         <v>76</v>
       </c>
       <c r="F98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I98" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J98" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>75</v>
@@ -13718,28 +13714,28 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="AK98" t="s" s="2">
+      <c r="AL98" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>75</v>
@@ -13750,7 +13746,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13773,17 +13769,17 @@
         <v>75</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>75</v>
@@ -13832,7 +13828,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>76</v>
@@ -13844,16 +13840,16 @@
         <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK99" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AL99" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>75</v>
@@ -13864,7 +13860,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13887,13 +13883,13 @@
         <v>75</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13944,7 +13940,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -13956,16 +13952,16 @@
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="AK100" t="s" s="2">
+      <c r="AL100" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>75</v>
@@ -13976,7 +13972,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13987,7 +13983,7 @@
         <v>76</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>75</v>
@@ -13999,7 +13995,7 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>99</v>
@@ -14062,7 +14058,7 @@
         <v>76</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
@@ -14088,7 +14084,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14202,11 +14198,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14219,25 +14215,25 @@
         <v>75</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>75</v>
@@ -14286,7 +14282,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -14304,7 +14300,7 @@
         <v>75</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>75</v>
@@ -14318,7 +14314,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14341,17 +14337,17 @@
         <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>75</v>
@@ -14400,7 +14396,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -14412,13 +14408,13 @@
         <v>75</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>75</v>
@@ -14432,7 +14428,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14440,10 +14436,10 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>75</v>
@@ -14455,13 +14451,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14488,52 +14484,52 @@
         <v>75</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="Y105" t="s" s="2">
+      <c r="Z105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>75</v>
@@ -14544,7 +14540,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14555,7 +14551,7 @@
         <v>76</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>75</v>
@@ -14567,17 +14563,17 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>75</v>
@@ -14626,28 +14622,28 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>75</v>
@@ -14658,7 +14654,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14669,7 +14665,7 @@
         <v>76</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>75</v>
@@ -14681,13 +14677,13 @@
         <v>75</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14738,25 +14734,25 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>75</v>
@@ -14770,7 +14766,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14793,19 +14789,19 @@
         <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>75</v>
@@ -14830,14 +14826,14 @@
         <v>75</v>
       </c>
       <c r="W108" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X108" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="X108" t="s" s="2">
+      <c r="Y108" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y108" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="Z108" t="s" s="2">
         <v>75</v>
       </c>
@@ -14854,7 +14850,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>76</v>
@@ -14866,16 +14862,16 @@
         <v>75</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ108" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="AK108" t="s" s="2">
+      <c r="AL108" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-mp4p-practitioner.xlsx
+++ b/StructureDefinition-mp4p-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
